--- a/files/Mapping.xlsx
+++ b/files/Mapping.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" activeTab="2"/>
+    <workbookView xWindow="672" yWindow="120" windowWidth="20868" windowHeight="7416" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapped Rules" sheetId="2" r:id="rId2"/>
-    <sheet name="Suggestion" sheetId="3" r:id="rId3"/>
+    <sheet name="Regel-Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Regel-Eingrenzung" sheetId="2" r:id="rId2"/>
+    <sheet name="Regelvorschlag" sheetId="4" r:id="rId3"/>
+    <sheet name="Index-Mapping" sheetId="5" r:id="rId4"/>
+    <sheet name="Index-Neudefinition" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Ruleset_Mapping_1" localSheetId="0">'Full Mapping'!$A$1:$J$384</definedName>
+    <definedName name="Ruleset_Mapping_1" localSheetId="0">'Regel-Mapping'!$A$1:$J$384</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="868">
   <si>
     <t>Classification</t>
   </si>
@@ -2001,124 +2003,649 @@
     <t>Kategorie</t>
   </si>
   <si>
-    <t>"Namen sind wichtig"</t>
-  </si>
-  <si>
-    <t>"Ein bisschen Stil"</t>
-  </si>
-  <si>
-    <t>"Überflüssiges weg"</t>
-  </si>
-  <si>
-    <t>"Nicht machen"</t>
-  </si>
-  <si>
-    <t>"Nicht zu komplex"</t>
-  </si>
-  <si>
-    <t>"Best practices"</t>
-  </si>
-  <si>
-    <t>Standard-Java-Namenskonventionen (CamelCase, …) und eventuell mindest/maximal-Länge</t>
-  </si>
-  <si>
-    <t>Beliebige Bezeichner nicht nur in Groß/Klein-Schreibung unterscheiden</t>
-  </si>
-  <si>
-    <t>Maximal Zeilenbreite (80 / 100 /120)</t>
-  </si>
-  <si>
-    <t>Je Anweisung eine Zeile</t>
-  </si>
-  <si>
-    <t>Nur eine Variablendeklaration je Zeile</t>
-  </si>
-  <si>
-    <t>Geschweifte Klammern nach K&amp;R Style setzen, auch freiwillige</t>
-  </si>
-  <si>
-    <t>Alles öffentliche mit Javadoc kommentieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassen nicht zu groß (400 / 1000 Zeilen) / (10 / 20 / 40 Methoden) </t>
-  </si>
-  <si>
-    <t>Konsistent einrücken (2 / 3 / 4 Leerzeichen), ohne Tabulator</t>
-  </si>
-  <si>
-    <t>Methoden nicht zu groß und komplex (40 / 100 Zeilen) mit wenig Parametern ( 3 / 5 / 7)</t>
-  </si>
-  <si>
-    <t>Kontrollflußanweisungen nicht zu tief Verschachteln (3 / 5)</t>
-  </si>
-  <si>
-    <t>Klassen sollten nicht zu viele Verbindungen zu anderen klassen haben (Fremdmethodenaufrufe 20 / 40 )</t>
-  </si>
-  <si>
-    <t>Keine zyklischen Abhängigkeiten zwischen Packages</t>
-  </si>
-  <si>
-    <t>Alles überflüssige entfernen</t>
-  </si>
-  <si>
-    <t>Klassenvariablen nicht public</t>
-  </si>
-  <si>
-    <t>doppelte Code-Blöcke in Methoden auslagern und wiederverwenden</t>
-  </si>
-  <si>
-    <t>Keine "Magic Numbers"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lokale Variablen unmittelbar vor verwendung deklarieren </t>
-  </si>
-  <si>
-    <t>Keine fehlschlagenden Tests ignorieren</t>
-  </si>
-  <si>
-    <t>Keine Wildcard imports</t>
-  </si>
-  <si>
-    <t>Nur eine Übergeordnete Klasse / Interface je Datei</t>
-  </si>
-  <si>
-    <t>Ausreichende Testabdeckung (80 / 90 %)</t>
-  </si>
-  <si>
-    <t>equals für Objektvergleich verwenden</t>
-  </si>
-  <si>
-    <t>statuische Zugriff auf statische Variablen und Methoden</t>
-  </si>
-  <si>
-    <t>\@Override überall da wo überschrieben wird</t>
-  </si>
-  <si>
-    <t>equals und hashCode immer zusammen überschreiben</t>
-  </si>
-  <si>
-    <t>TODOs in Kommentaren sollten erledigt werden</t>
-  </si>
-  <si>
-    <t>Eckige Klammern immer am Arraytyp, nicht Bezeichner</t>
-  </si>
-  <si>
-    <t>Informationen der Exceptions sollten erhalten bleiben beim weiter reichen</t>
-  </si>
-  <si>
-    <t>Long Suffix immer als Großbuchstabe (verwechslungsgefahr)</t>
-  </si>
-  <si>
-    <t>Try-With-Resources wann immer möglich</t>
-  </si>
-  <si>
-    <t>Switch-Anweisungen sollten immer default-case haben und jeder case durch break abgeschlossen werden</t>
-  </si>
-  <si>
-    <t>Regeln in SonarQube</t>
-  </si>
-  <si>
-    <t>Regeln für Lehrveranstaltung</t>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Complexity/Coupling</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Literals</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>-----------------------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------</t>
+  </si>
+  <si>
+    <t>-------------------------------</t>
+  </si>
+  <si>
+    <t>--------------------------------</t>
+  </si>
+  <si>
+    <t>------------------------------------</t>
+  </si>
+  <si>
+    <t>Akzeptanz</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Relevanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Einfachheit</t>
+  </si>
+  <si>
+    <t>Zusammenfassbar unter</t>
+  </si>
+  <si>
+    <t>Standard-Java-Konventionen</t>
+  </si>
+  <si>
+    <t>Simple-Code-Formatting</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Keep it small</t>
+  </si>
+  <si>
+    <t>Nicht zu tief verschachteln</t>
+  </si>
+  <si>
+    <t>Coupling reduzieren</t>
+  </si>
+  <si>
+    <t>Alles ungenutzte weg</t>
+  </si>
+  <si>
+    <t>Ausreichend dokumentieren via comments</t>
+  </si>
+  <si>
+    <t>vorsicht beim switch</t>
+  </si>
+  <si>
+    <t>Sichtbarkeit + Gültigkeit so gering wie möglich</t>
+  </si>
+  <si>
+    <t>Namen nicht doppeln / verwechslung vermeiden</t>
+  </si>
+  <si>
+    <t>Vorschlag</t>
+  </si>
+  <si>
+    <t>nur einfach genannt, keine spezielle Bedeutung fürs SWP</t>
+  </si>
+  <si>
+    <t>Aus meiner Sicht keine große Bedeutung fürs SWP und relativ hoher Erklärungsaufwand warum, was rein, usw.. (es sei denn fürs SWP explizit gefordert das package.info angelegt wird)</t>
+  </si>
+  <si>
+    <t>Gegenläufig zu ausgewählter Regel</t>
+  </si>
+  <si>
+    <t>Regeleingrenzung</t>
+  </si>
+  <si>
+    <t>Schritt</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Was wird in mehreren Quellen genannt</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>was hängt mit mehrfach genannten Regeln zusammen und kann daher gut zusammen vermittelt werden</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Was von den mehrfach genannten ist fürs SWP nicht relevant bzw. schwer zu vermitteln</t>
+  </si>
+  <si>
+    <t>SQ-Einstufung</t>
+  </si>
+  <si>
+    <t>Regel</t>
+  </si>
+  <si>
+    <t>weil…</t>
+  </si>
+  <si>
+    <t>Ja - critical</t>
+  </si>
+  <si>
+    <t>konsistente Benamung kernelement der meisten Quellen</t>
+  </si>
+  <si>
+    <t>Ja - major</t>
+  </si>
+  <si>
+    <t>häufig genannt, potentielle Fehlerquelle</t>
+  </si>
+  <si>
+    <t>gehört thematisch zu häufig genanntem Regelkomplex</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>ebenso häufig genannt wie namen und fast genauso wichtig</t>
+  </si>
+  <si>
+    <t>Ja - blocker</t>
+  </si>
+  <si>
+    <t>Absolutes Kernmerkmal für Code-Qualität</t>
+  </si>
+  <si>
+    <t>Ja - minor</t>
+  </si>
+  <si>
+    <t>Im Kontext nicht ganz so wichtig - Ursprung liegt in Betrachtung von Quelldateien mit verschiedenen Programmen</t>
+  </si>
+  <si>
+    <t>Klassen + Methodengröße ebenso kernpunkt bei lesbarkeit</t>
+  </si>
+  <si>
+    <t>ja - major</t>
+  </si>
+  <si>
+    <t>Gehört zu Lesbarkeit aber nicht ganz so problematisch</t>
+  </si>
+  <si>
+    <t>Teil der zentralen Zielstellung Wiederverwendbarkeit</t>
+  </si>
+  <si>
+    <t>Tritt hinter Größenbeschränkung zurück, spielt aber auch wichtige Rolle für Lesbarkeit</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein in der Literatur immer wieder als extrem wichtig erwähntes Detail </t>
+  </si>
+  <si>
+    <t>Nicht so extrem wichtig, zeigt aber das code aufgeräumt wurde und erhöht lesbarkeit</t>
+  </si>
+  <si>
+    <t>ja - info</t>
+  </si>
+  <si>
+    <t>implizite ungenutzte imports - nicht bedeutend, aber erwähnenswert</t>
+  </si>
+  <si>
+    <t>nicht so schlimm wie fast gleiche namen, aber verwechslungsgefahr</t>
+  </si>
+  <si>
+    <t>nicht spezifizierte Sichtbarkeit heißt meist nicht drüber nachgedacht und selten absicht und eher zu hoch</t>
+  </si>
+  <si>
+    <t>Grundstock der sinnvollen Kommentare</t>
+  </si>
+  <si>
+    <t>Gewisser grad an Kommentierung sollte da sein: Grenzwert fraglich</t>
+  </si>
+  <si>
+    <t>Ja - info</t>
+  </si>
+  <si>
+    <t>Nur einmal genannt, aber Zeichen für nicht aufgeräumten, unfertigen Code: daher zur info</t>
+  </si>
+  <si>
+    <t>Nur einmal genannt, gehört aber zu alles ungenutzte weg und Zeichen für nicht aufgeräumten, unfertigen Code: daher zur info</t>
+  </si>
+  <si>
+    <t>Oft genannte fehlersichere "Best Practice"</t>
+  </si>
+  <si>
+    <t>Beinahe Überall gennantes Grundprinzip</t>
+  </si>
+  <si>
+    <t>Oft genannte wichtige Struktur-Basis</t>
+  </si>
+  <si>
+    <t>Testabdeckung Essentiell für guten Code</t>
+  </si>
+  <si>
+    <t>Erhöht lesbarkeit und reduziert ungewollte Nebeneffekte, Bedeutung eher untergeordnet</t>
+  </si>
+  <si>
+    <t>58 SonarQubeRegeln - 3 Blocker, 17 critical, 16 major, 19 minor, 3 info</t>
+  </si>
+  <si>
+    <t>10 Regelkomplexe  + 8 Einzelregeln für Lehrveranstaltung</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Was kann SonarQube (in Lehrstuhlversion) alles Messen --&gt; siehe Full Mapping</t>
+  </si>
+  <si>
+    <t>Eventuell zusätzlich relevante Regeln, obwohl nur einfach genannt</t>
+  </si>
+  <si>
+    <t>Qualitätsindikator</t>
+  </si>
+  <si>
+    <t>Analysierbarkeit</t>
+  </si>
+  <si>
+    <t>Modifizierbarkeit</t>
+  </si>
+  <si>
+    <t>Stabilität</t>
+  </si>
+  <si>
+    <t>Prüfbarkeit</t>
+  </si>
+  <si>
+    <t>Austauschbarkeit</t>
+  </si>
+  <si>
+    <t>Zeitverhalten</t>
+  </si>
+  <si>
+    <t>Verbrauchsverhalten</t>
+  </si>
+  <si>
+    <t>Kostenzuwachs</t>
+  </si>
+  <si>
+    <t>Unmittelbarkeit</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Einstufung nach Simon et Al.</t>
+  </si>
+  <si>
+    <t>Qualitätseigenschaften nach Simon et Al. In %</t>
+  </si>
+  <si>
+    <t>Namensfehler</t>
+  </si>
+  <si>
+    <t>Einstufung SWP</t>
+  </si>
+  <si>
+    <t>Attributüberdeckung</t>
+  </si>
+  <si>
+    <t>Datenkapselaufbruch</t>
+  </si>
+  <si>
+    <t>Regeln in SQ</t>
+  </si>
+  <si>
+    <t>ID für Index</t>
+  </si>
+  <si>
+    <t>N00</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>V01</t>
+  </si>
+  <si>
+    <t>V00</t>
+  </si>
+  <si>
+    <t>N00-N09</t>
+  </si>
+  <si>
+    <t>G00</t>
+  </si>
+  <si>
+    <t>Duplizierter Code</t>
+  </si>
+  <si>
+    <t>D00</t>
+  </si>
+  <si>
+    <t>falsche Namenslänge</t>
+  </si>
+  <si>
+    <t>Gottdatei</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Gottklasse</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Gottmethode</t>
+  </si>
+  <si>
+    <t>Identitätsspaltung</t>
+  </si>
+  <si>
+    <t>Importchaos</t>
+  </si>
+  <si>
+    <t>W00</t>
+  </si>
+  <si>
+    <t>U00</t>
+  </si>
+  <si>
+    <t>U00 + W00</t>
+  </si>
+  <si>
+    <t>Importlüge</t>
+  </si>
+  <si>
+    <t>minor / info</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>wäre in SQ nur ein Teil des Namenspatterns</t>
+  </si>
+  <si>
+    <t>Nicht ganz identisch</t>
+  </si>
+  <si>
+    <t>U00 nur zum Teil</t>
+  </si>
+  <si>
+    <t>informelle Dokumentation</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>Labyrinthmethode</t>
+  </si>
+  <si>
+    <t>K00</t>
+  </si>
+  <si>
+    <t>lange Parameterliste</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Nachlässige Kommentierung</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Objektplacebo Attribut</t>
+  </si>
+  <si>
+    <t>O00</t>
+  </si>
+  <si>
+    <t>nur zum Teil</t>
+  </si>
+  <si>
+    <t>Objektplacebo Methode</t>
+  </si>
+  <si>
+    <t>R00</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>Risikocode</t>
+  </si>
+  <si>
+    <t>R00 + R01</t>
+  </si>
+  <si>
+    <t>Regeln sind 2/3 des Indikators</t>
+  </si>
+  <si>
+    <t>tote Attribute</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>U02</t>
+  </si>
+  <si>
+    <t>tote Methode</t>
+  </si>
+  <si>
+    <t>Ü00</t>
+  </si>
+  <si>
+    <t>überbuchte Datei</t>
+  </si>
+  <si>
+    <t>unfertiger Code</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>verbotene Paketliebe</t>
+  </si>
+  <si>
+    <t>Erkenntnisse:</t>
+  </si>
+  <si>
+    <t>Einstufung der Regeln passt überhaupt nicht zu SQ-Klassifizierung…</t>
+  </si>
+  <si>
+    <t>Nur 31 der gewählten 58 Regeln lassen sich überhaupt abbilden</t>
+  </si>
+  <si>
+    <t>Abbildung auf Qualitätsmerkmale, Kosten und Unmittelbarkeit für das SWP nicht soo relevant</t>
+  </si>
+  <si>
+    <t>daher Komplette neudefinition !!!</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>nüscht</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>blocker 50%, critical 25%</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>blocker 75%, critical 50%, major 50%</t>
+  </si>
+  <si>
+    <t>blocker 100%, critical 75 %, major 75%, minor 50%</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>blocker 100%, critical 100%, major 100%, minor 75%, info 75%</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>zugeordnete Regeln</t>
+  </si>
+  <si>
+    <t>Einstufung</t>
+  </si>
+  <si>
+    <t>StandardJava + 3 bis 50 Zeichen</t>
+  </si>
+  <si>
+    <t>StandardJava + maximal 50 Zeichen</t>
+  </si>
+  <si>
+    <t>StandardJava + 3 bis 20 Zeichen</t>
+  </si>
+  <si>
+    <t>StandardJava</t>
+  </si>
+  <si>
+    <t>Verwechslungsgefahr</t>
+  </si>
+  <si>
+    <t>Formatierungsfehler</t>
+  </si>
+  <si>
+    <t>20 aufeinanderfolgende Zeilen (?)</t>
+  </si>
+  <si>
+    <t>Gottkonstrukt</t>
+  </si>
+  <si>
+    <t>10 (?)</t>
+  </si>
+  <si>
+    <t>100 (?)</t>
+  </si>
+  <si>
+    <t>Zu kompliziert</t>
+  </si>
+  <si>
+    <t>McCabe max 100 (?)</t>
+  </si>
+  <si>
+    <t>Zu enge Kupplung</t>
+  </si>
+  <si>
+    <t>Toter Code</t>
+  </si>
+  <si>
+    <t>Importfehler</t>
+  </si>
+  <si>
+    <t>Magic Numbers</t>
+  </si>
+  <si>
+    <t>nachlässige Kommentierung</t>
+  </si>
+  <si>
+    <t>Objektplacebo</t>
+  </si>
+  <si>
+    <t>unzureichende Tests</t>
+  </si>
+  <si>
+    <t>Deklarationsfehler</t>
+  </si>
+  <si>
+    <t>Objektvergleich</t>
+  </si>
+  <si>
+    <t>eigens definierter Indikator</t>
+  </si>
+  <si>
+    <t>SQ - Konfiguration</t>
+  </si>
+  <si>
+    <t>400 (SoPra)</t>
+  </si>
+  <si>
+    <t>40 (SoPra)</t>
+  </si>
+  <si>
+    <t>5 (SoPra)</t>
+  </si>
+  <si>
+    <t>3 (?)</t>
+  </si>
+  <si>
+    <t>McCabe max 10 (SoPra)</t>
+  </si>
+  <si>
+    <t>3 Blocker, 5 critical, 4 major, 7 minor, 1 info = 20 Indikatoren</t>
+  </si>
+  <si>
+    <t>nah an original Indikator</t>
   </si>
 </sst>
 </file>
@@ -2603,17 +3130,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2651,6 +3169,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="17" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="17" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2999,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
+    <sheetView topLeftCell="A346" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3023,13 +3559,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -4611,10 +5147,10 @@
       <c r="D90" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="2" t="s">
         <v>567</v>
       </c>
       <c r="J90" t="s">
@@ -4819,10 +5355,10 @@
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="H101" s="38" t="s">
+      <c r="H101" s="35" t="s">
         <v>567</v>
       </c>
       <c r="J101" t="s">
@@ -5049,10 +5585,10 @@
       <c r="E114" t="s">
         <v>9</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H114" s="38" t="s">
+      <c r="H114" s="35" t="s">
         <v>643</v>
       </c>
       <c r="J114" t="s">
@@ -5075,7 +5611,7 @@
       <c r="E115" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="35" t="s">
         <v>575</v>
       </c>
       <c r="J115" t="s">
@@ -5095,7 +5631,7 @@
       <c r="D116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="5" t="s">
         <v>619</v>
       </c>
       <c r="J116" t="s">
@@ -5223,7 +5759,7 @@
       <c r="F123" t="s">
         <v>628</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="6" t="s">
         <v>110</v>
       </c>
       <c r="J123" t="s">
@@ -5283,7 +5819,7 @@
       <c r="E126" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G126" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J126" t="s">
@@ -5303,7 +5839,7 @@
       <c r="D127" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="8" t="s">
         <v>625</v>
       </c>
       <c r="G127" t="s">
@@ -5568,10 +6104,10 @@
       <c r="F141" t="s">
         <v>597</v>
       </c>
-      <c r="G141" s="12" t="s">
+      <c r="G141" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="H141" s="38" t="s">
+      <c r="H141" s="35" t="s">
         <v>567</v>
       </c>
       <c r="J141" t="s">
@@ -5591,7 +6127,7 @@
       <c r="D142" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F142" s="10" t="s">
         <v>129</v>
       </c>
       <c r="J142" t="s">
@@ -5662,7 +6198,7 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="11" t="s">
         <v>617</v>
       </c>
       <c r="J146" t="s">
@@ -6250,10 +6786,10 @@
       <c r="F179" t="s">
         <v>598</v>
       </c>
-      <c r="G179" s="15" t="s">
+      <c r="G179" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="H179" s="38" t="s">
+      <c r="H179" s="35" t="s">
         <v>641</v>
       </c>
       <c r="J179" t="s">
@@ -6514,10 +7050,10 @@
       <c r="C194" t="s">
         <v>9</v>
       </c>
-      <c r="G194" s="16" t="s">
+      <c r="G194" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="H194" s="38" t="s">
+      <c r="H194" s="35" t="s">
         <v>567</v>
       </c>
       <c r="J194" t="s">
@@ -6730,10 +7266,10 @@
       <c r="D206" t="s">
         <v>9</v>
       </c>
-      <c r="G206" s="17" t="s">
+      <c r="G206" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="H206" s="38" t="s">
+      <c r="H206" s="35" t="s">
         <v>640</v>
       </c>
       <c r="J206" t="s">
@@ -7034,7 +7570,7 @@
       <c r="D223" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="18" t="s">
+      <c r="F223" s="15" t="s">
         <v>603</v>
       </c>
       <c r="J223" t="s">
@@ -7111,10 +7647,10 @@
       <c r="D227" t="s">
         <v>9</v>
       </c>
-      <c r="G227" s="19" t="s">
+      <c r="G227" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="H227" s="38" t="s">
+      <c r="H227" s="35" t="s">
         <v>642</v>
       </c>
       <c r="J227" t="s">
@@ -7151,7 +7687,7 @@
       <c r="D229" t="s">
         <v>9</v>
       </c>
-      <c r="G229" s="38" t="s">
+      <c r="G229" s="35" t="s">
         <v>575</v>
       </c>
       <c r="J229" t="s">
@@ -7293,7 +7829,7 @@
       <c r="E237" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="20" t="s">
+      <c r="F237" s="17" t="s">
         <v>631</v>
       </c>
       <c r="G237" t="s">
@@ -7396,10 +7932,10 @@
       <c r="F242" t="s">
         <v>596</v>
       </c>
-      <c r="G242" s="21" t="s">
+      <c r="G242" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="H242" s="38" t="s">
+      <c r="H242" s="35" t="s">
         <v>639</v>
       </c>
       <c r="J242" t="s">
@@ -7439,7 +7975,7 @@
       <c r="E244" t="s">
         <v>9</v>
       </c>
-      <c r="H244" s="22" t="s">
+      <c r="H244" s="19" t="s">
         <v>252</v>
       </c>
       <c r="J244" t="s">
@@ -7564,10 +8100,10 @@
       <c r="D251" t="s">
         <v>9</v>
       </c>
-      <c r="F251" s="23" t="s">
+      <c r="F251" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="G251" s="24" t="s">
+      <c r="G251" s="21" t="s">
         <v>257</v>
       </c>
       <c r="J251" t="s">
@@ -7587,10 +8123,10 @@
       <c r="D252" t="s">
         <v>9</v>
       </c>
-      <c r="F252" s="25" t="s">
+      <c r="F252" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="G252" s="26" t="s">
+      <c r="G252" s="23" t="s">
         <v>259</v>
       </c>
       <c r="J252" t="s">
@@ -7610,7 +8146,7 @@
       <c r="D253" t="s">
         <v>9</v>
       </c>
-      <c r="F253" s="27" t="s">
+      <c r="F253" s="24" t="s">
         <v>627</v>
       </c>
       <c r="J253" t="s">
@@ -8153,10 +8689,10 @@
       <c r="F283" t="s">
         <v>595</v>
       </c>
-      <c r="G283" s="28" t="s">
+      <c r="G283" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="H283" s="38" t="s">
+      <c r="H283" s="35" t="s">
         <v>644</v>
       </c>
       <c r="J283" t="s">
@@ -8545,7 +9081,7 @@
       <c r="D305" t="s">
         <v>9</v>
       </c>
-      <c r="F305" s="29" t="s">
+      <c r="F305" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I305" t="s">
@@ -8735,7 +9271,7 @@
       <c r="F316" t="s">
         <v>327</v>
       </c>
-      <c r="G316" s="30" t="s">
+      <c r="G316" s="27" t="s">
         <v>328</v>
       </c>
       <c r="H316" t="s">
@@ -8781,7 +9317,7 @@
       <c r="D318" t="s">
         <v>9</v>
       </c>
-      <c r="F318" s="31" t="s">
+      <c r="F318" s="28" t="s">
         <v>611</v>
       </c>
       <c r="J318" t="s">
@@ -8841,10 +9377,10 @@
       <c r="D321" t="s">
         <v>9</v>
       </c>
-      <c r="G321" s="32" t="s">
+      <c r="G321" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="H321" s="38" t="s">
+      <c r="H321" s="35" t="s">
         <v>641</v>
       </c>
       <c r="J321" t="s">
@@ -9125,7 +9661,7 @@
       <c r="C337" t="s">
         <v>9</v>
       </c>
-      <c r="G337" s="33" t="s">
+      <c r="G337" s="30" t="s">
         <v>353</v>
       </c>
       <c r="J337" t="s">
@@ -9145,7 +9681,7 @@
       <c r="D338" t="s">
         <v>9</v>
       </c>
-      <c r="G338" s="34" t="s">
+      <c r="G338" s="31" t="s">
         <v>353</v>
       </c>
       <c r="J338" t="s">
@@ -9486,10 +10022,10 @@
       <c r="F357" t="s">
         <v>599</v>
       </c>
-      <c r="G357" s="35" t="s">
+      <c r="G357" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="H357" s="38" t="s">
+      <c r="H357" s="35" t="s">
         <v>567</v>
       </c>
       <c r="J357" t="s">
@@ -9552,7 +10088,7 @@
       <c r="F360" t="s">
         <v>571</v>
       </c>
-      <c r="G360" s="36" t="s">
+      <c r="G360" s="33" t="s">
         <v>584</v>
       </c>
       <c r="J360" t="s">
@@ -9635,7 +10171,7 @@
       <c r="D364" t="s">
         <v>9</v>
       </c>
-      <c r="G364" s="37" t="s">
+      <c r="G364" s="34" t="s">
         <v>584</v>
       </c>
       <c r="J364" t="s">
@@ -9909,7 +10445,7 @@
       <c r="G378" t="s">
         <v>563</v>
       </c>
-      <c r="I378" s="38" t="s">
+      <c r="I378" s="35" t="s">
         <v>400</v>
       </c>
       <c r="J378" t="s">
@@ -10018,8 +10554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10034,2276 +10570,2276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="C5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="C6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="C7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="38" t="s">
+      <c r="C9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="C10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="38" t="s">
+      <c r="C13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="38" t="s">
+      <c r="C14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>617</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="38" t="s">
+      <c r="C16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="38" t="s">
+      <c r="C17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="C18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="35" t="s">
         <v>641</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="38" t="s">
+      <c r="C19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="C20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="38" t="s">
+      <c r="C21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="38" t="s">
+      <c r="C22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="38" t="s">
+      <c r="C23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="38" t="s">
+      <c r="C24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="38" t="s">
+      <c r="C25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="C26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="38" t="s">
+      <c r="C27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="38" t="s">
+      <c r="C28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="38" t="s">
+      <c r="C29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="38" t="s">
+      <c r="C30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="38" t="s">
+    <row r="31" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="38" t="s">
+      <c r="C31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="38" t="s">
+      <c r="C32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="35" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>541</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="38" t="s">
+      <c r="C33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="38" t="s">
+      <c r="C34" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="38" t="s">
+      <c r="C35" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="38" t="s">
+      <c r="C36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="38" t="s">
+      <c r="C37" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="38" t="s">
+    <row r="38" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="38" t="s">
+      <c r="C38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="38" t="s">
+    <row r="39" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="38" t="s">
+      <c r="C39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="35" t="s">
         <v>611</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38" t="s">
+    <row r="40" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="38" t="s">
+      <c r="C40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+    <row r="41" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="38" t="s">
+      <c r="C41" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="35" t="s">
         <v>641</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="38" t="s">
+    <row r="42" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="38" t="s">
+      <c r="C42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="35" t="s">
         <v>615</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="35" t="s">
         <v>569</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H42" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="38" t="s">
+      <c r="C43" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="35" t="s">
         <v>586</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+    <row r="44" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="38" t="s">
+      <c r="C44" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="38" t="s">
+    <row r="45" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="38" t="s">
+      <c r="C45" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="35" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="38" t="s">
+      <c r="C46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="35" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="38" t="s">
+    <row r="47" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="38" t="s">
+      <c r="C47" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+    <row r="48" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="38" t="s">
+      <c r="C48" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="H48" s="38" t="s">
+      <c r="H48" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="38" t="s">
+    <row r="49" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="38" t="s">
+      <c r="C49" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>590</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="J49" s="38" t="s">
+      <c r="J49" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="45" t="s">
         <v>648</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="38" t="s">
+      <c r="J52" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="38"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="38" t="s">
+      <c r="A53" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38" t="s">
+      <c r="C53" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38" t="s">
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="38"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="38" t="s">
+      <c r="A54" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38" t="s">
+      <c r="C54" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38" t="s">
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="38"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38" t="s">
+      <c r="C55" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38" t="s">
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="35"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="38" t="s">
+      <c r="A56" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="C56" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38" t="s">
+      <c r="C56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38" t="s">
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="38"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38" t="s">
+      <c r="C57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38" t="s">
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="38"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38" t="s">
+      <c r="C58" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38" t="s">
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K58" s="38"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="38" t="s">
+      <c r="A59" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38" t="s">
+      <c r="C59" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38" t="s">
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="38"/>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="38" t="s">
+      <c r="A60" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38" t="s">
+      <c r="C60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38" t="s">
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K60" s="38"/>
-    </row>
-    <row r="61" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="38" t="s">
+      <c r="C61" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="38" t="s">
+      <c r="J61" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="38" t="s">
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="38" t="s">
+      <c r="C62" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J62" s="38" t="s">
+      <c r="J62" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="38" t="s">
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="38" t="s">
+      <c r="C63" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="J63" s="38" t="s">
+      <c r="J63" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="38" t="s">
+      <c r="A64" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38" t="s">
+      <c r="C64" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38" t="s">
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="K64" s="38"/>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="C65" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38" t="s">
+      <c r="C65" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38" t="s">
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="K65" s="38"/>
+      <c r="K65" s="35"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="38" t="s">
+      <c r="A66" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38" t="s">
+      <c r="C66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38" t="s">
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="K66" s="38"/>
+      <c r="K66" s="35"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="38" t="s">
+      <c r="A67" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38" t="s">
+      <c r="C67" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38" t="s">
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K67" s="38"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="38" t="s">
+      <c r="A68" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38" t="s">
+      <c r="C68" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38" t="s">
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="38"/>
-    </row>
-    <row r="69" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="38" t="s">
+      <c r="K68" s="35"/>
+    </row>
+    <row r="69" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="38" t="s">
+      <c r="C69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="J69" s="38" t="s">
+      <c r="J69" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+    <row r="70" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="38" t="s">
+      <c r="C70" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="J70" s="38" t="s">
+      <c r="J70" s="35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38" t="s">
+    <row r="71" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="38" t="s">
+      <c r="C71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="38" t="s">
+    <row r="72" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="C72" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="38" t="s">
+      <c r="C72" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="J72" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="38" t="s">
+    <row r="73" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C73" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="38" t="s">
+      <c r="C73" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="J73" s="38" t="s">
+      <c r="J73" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
+    <row r="74" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="38" t="s">
+      <c r="C74" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="38" t="s">
+      <c r="J74" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="38" t="s">
+    <row r="75" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="38" t="s">
+      <c r="C75" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="J75" s="38" t="s">
+      <c r="J75" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38" t="s">
+    <row r="76" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="C76" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="38" t="s">
+      <c r="C76" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="J76" s="38" t="s">
+      <c r="J76" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="38" t="s">
+    <row r="77" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="38" t="s">
+      <c r="C77" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="J77" s="38" t="s">
+      <c r="J77" s="35" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38" t="s">
+    <row r="78" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C78" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="38" t="s">
+      <c r="C78" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="J78" s="38" t="s">
+      <c r="J78" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="38" t="s">
+    <row r="79" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C79" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="38" t="s">
+      <c r="C79" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="J79" s="38" t="s">
+      <c r="J79" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38" t="s">
+      <c r="C80" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38" t="s">
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K80" s="38"/>
+      <c r="K80" s="35"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="38" t="s">
+      <c r="A81" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="C81" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38" t="s">
+      <c r="C81" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="35" t="s">
         <v>574</v>
       </c>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38" t="s">
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="K81" s="38"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="38" t="s">
+      <c r="A82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38" t="s">
+      <c r="C82" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38" t="s">
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="K82" s="38"/>
+      <c r="K82" s="35"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="38" t="s">
+      <c r="A83" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38" t="s">
+      <c r="C83" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38" t="s">
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="K83" s="38"/>
+      <c r="K83" s="35"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="38" t="s">
+      <c r="A84" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C84" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38" t="s">
+      <c r="C84" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38" t="s">
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="K84" s="38"/>
+      <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="38" t="s">
+      <c r="A85" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C85" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38" t="s">
+      <c r="C85" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38" t="s">
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="K85" s="38"/>
+      <c r="K85" s="35"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="35" t="s">
         <v>558</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38" t="s">
+      <c r="C86" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38" t="s">
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="K86" s="38"/>
+      <c r="K86" s="35"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C87" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="38" t="s">
+      <c r="C87" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38" t="s">
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="K87" s="38"/>
-    </row>
-    <row r="88" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="38" t="s">
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="J88" s="38" t="s">
+      <c r="J88" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="45" t="s">
         <v>649</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F91" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="38" t="s">
+      <c r="H91" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="38" t="s">
+      <c r="I91" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J91" s="38" t="s">
+      <c r="J91" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K91" s="38"/>
+      <c r="K91" s="35"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="C92" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38" t="s">
+      <c r="C92" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J92" s="38" t="s">
+      <c r="J92" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="38"/>
+      <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="C93" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38" t="s">
+      <c r="C93" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="J93" s="38" t="s">
+      <c r="J93" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K93" s="38"/>
+      <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38" t="s">
+      <c r="C94" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38" t="s">
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="J94" s="38" t="s">
+      <c r="J94" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K94" s="38"/>
+      <c r="K94" s="35"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38" t="s">
+      <c r="C95" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="I95" s="38" t="s">
+      <c r="I95" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="J95" s="38" t="s">
+      <c r="J95" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K95" s="38"/>
+      <c r="K95" s="35"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="38" t="s">
+      <c r="A96" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38" t="s">
+      <c r="C96" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="J96" s="38" t="s">
+      <c r="J96" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="38"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38" t="s">
+      <c r="C97" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38" t="s">
+      <c r="H97" s="35"/>
+      <c r="I97" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="J97" s="38" t="s">
+      <c r="J97" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K97" s="38"/>
+      <c r="K97" s="35"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="38" t="s">
+      <c r="A98" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38" t="s">
+      <c r="C98" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38" t="s">
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="J98" s="38" t="s">
+      <c r="J98" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="K98" s="38"/>
-    </row>
-    <row r="99" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="38" t="s">
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="C99" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="38" t="s">
+      <c r="C99" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="G99" s="38" t="s">
+      <c r="G99" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="I99" s="38" t="s">
+      <c r="I99" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="J99" s="38" t="s">
+      <c r="J99" s="35" t="s">
         <v>46</v>
       </c>
     </row>
@@ -12320,440 +12856,3995 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="104.77734375" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>652</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>691</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" t="s">
+        <v>699</v>
+      </c>
+      <c r="C9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>670</v>
+      </c>
+      <c r="F9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" t="s">
+        <v>674</v>
+      </c>
+      <c r="H9" t="s">
+        <v>686</v>
+      </c>
+      <c r="I9" t="s">
+        <v>701</v>
+      </c>
+      <c r="J9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>653</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I12" t="s">
+        <v>705</v>
+      </c>
+      <c r="J12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="J13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J16" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D20" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J20" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J22" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="38" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>707</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" t="s">
+        <v>718</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>654</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" t="s">
+        <v>709</v>
+      </c>
+      <c r="I37" t="s">
+        <v>710</v>
+      </c>
+      <c r="J37" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I39" t="s">
+        <v>713</v>
+      </c>
+      <c r="J39" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="J40" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="J41" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="I42" t="s">
+        <v>715</v>
+      </c>
+      <c r="J42" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>656</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I46" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H47" t="s">
+        <v>704</v>
+      </c>
+      <c r="I47" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="J48" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="J49" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="38" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>657</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="J53" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="J54" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="J56" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="38" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>658</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="I64" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B66" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="J67" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="J68" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="I70" t="s">
+        <v>728</v>
+      </c>
+      <c r="J70" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I71" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="I72" s="35" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>654</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B74" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J74" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I75" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J75" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G76" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="I76" t="s">
+        <v>731</v>
+      </c>
+      <c r="J76" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H77" t="s">
+        <v>702</v>
+      </c>
+      <c r="I77" t="s">
+        <v>732</v>
+      </c>
+      <c r="J77" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H78" t="s">
+        <v>702</v>
+      </c>
+      <c r="I78" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I79" s="35" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I80" s="35" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I81" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J81" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I82" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="38" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I84" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I85" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I86" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I87" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I88" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I89" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I90" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I91" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I92" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I93" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I94" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I95" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E96" s="35"/>
+      <c r="F96" s="38" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>657</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="G96" s="35"/>
+      <c r="H96" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I96" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G97" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H97" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I97" s="35" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F98" s="38" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="G98" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I98" s="35" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" s="35" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>655</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>656</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="38" t="s">
+      <c r="E99" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I99" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E100" s="35"/>
+      <c r="F100" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I100" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I101" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I102" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I103" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E104" s="35"/>
+      <c r="F104" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I104" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="I105" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>658</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D106" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="G106" s="35" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="C54" s="3"/>
-    </row>
+      <c r="H106" s="35" t="s">
+        <v>721</v>
+      </c>
+      <c r="I106" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="J106" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+    </row>
+    <row r="110" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C27:C35"/>
+  <mergeCells count="1">
+    <mergeCell ref="D109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" t="s">
+        <v>754</v>
+      </c>
+      <c r="M1" t="s">
+        <v>757</v>
+      </c>
+      <c r="N1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G2" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I2" t="s">
+        <v>748</v>
+      </c>
+      <c r="J2" t="s">
+        <v>749</v>
+      </c>
+      <c r="K2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>75</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>75</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>771</v>
+      </c>
+      <c r="N7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>75</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>769</v>
+      </c>
+      <c r="N11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>783</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>788</v>
+      </c>
+      <c r="M12" t="s">
+        <v>786</v>
+      </c>
+      <c r="N12" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>787</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>785</v>
+      </c>
+      <c r="N13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>795</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>75</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>797</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>799</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>75</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>753</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>771</v>
+      </c>
+      <c r="N18" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>803</v>
+      </c>
+      <c r="N19" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>805</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>803</v>
+      </c>
+      <c r="N20" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>809</v>
+      </c>
+      <c r="N21" s="44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>811</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>814</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>75</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>817</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>819</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C7" t="s">
+        <v>860</v>
+      </c>
+      <c r="D7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>838</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>845</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>846</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>861</v>
+      </c>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>862</v>
+      </c>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>847</v>
+      </c>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>848</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" t="s">
+        <v>863</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="C36" t="s">
+        <v>864</v>
+      </c>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" t="s">
+        <v>865</v>
+      </c>
+      <c r="D37" s="35"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>849</v>
+      </c>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>846</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="35" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
+        <v>852</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="40" t="s">
+        <v>853</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
+        <v>808</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="40" t="s">
+        <v>857</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
+        <v>858</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>866</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>